--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N2">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O2">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P2">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q2">
-        <v>3030.930759866884</v>
+        <v>22062.54062963284</v>
       </c>
       <c r="R2">
-        <v>3030.930759866884</v>
+        <v>198562.8656666956</v>
       </c>
       <c r="S2">
-        <v>0.2445500337022096</v>
+        <v>0.5629961848867208</v>
       </c>
       <c r="T2">
-        <v>0.2445500337022096</v>
+        <v>0.562996184886721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q3">
-        <v>75.71480843673501</v>
+        <v>350.3138638379216</v>
       </c>
       <c r="R3">
-        <v>75.71480843673501</v>
+        <v>3152.824774541295</v>
       </c>
       <c r="S3">
-        <v>0.006109033964132227</v>
+        <v>0.008939377026632054</v>
       </c>
       <c r="T3">
-        <v>0.006109033964132227</v>
+        <v>0.008939377026632056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N4">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q4">
-        <v>161.6095509462945</v>
+        <v>791.6123599403203</v>
       </c>
       <c r="R4">
-        <v>161.6095509462945</v>
+        <v>7124.511239462883</v>
       </c>
       <c r="S4">
-        <v>0.01303943384449041</v>
+        <v>0.02020051752140346</v>
       </c>
       <c r="T4">
-        <v>0.01303943384449041</v>
+        <v>0.02020051752140347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N5">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O5">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P5">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q5">
-        <v>4510.018028502536</v>
+        <v>7774.135093572513</v>
       </c>
       <c r="R5">
-        <v>4510.018028502536</v>
+        <v>69967.21584215261</v>
       </c>
       <c r="S5">
-        <v>0.3638898900205519</v>
+        <v>0.1983818850217403</v>
       </c>
       <c r="T5">
-        <v>0.3638898900205519</v>
+        <v>0.1983818850217403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q6">
-        <v>112.6634615332777</v>
+        <v>123.4394237882789</v>
       </c>
       <c r="R6">
-        <v>112.6634615332777</v>
+        <v>1110.95481409451</v>
       </c>
       <c r="S6">
-        <v>0.009090228546224103</v>
+        <v>0.003149951124127298</v>
       </c>
       <c r="T6">
-        <v>0.009090228546224103</v>
+        <v>0.003149951124127299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N7">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q7">
-        <v>240.4746416503419</v>
+        <v>278.9389278065305</v>
       </c>
       <c r="R7">
-        <v>240.4746416503419</v>
+        <v>2510.450350258774</v>
       </c>
       <c r="S7">
-        <v>0.01940264769449919</v>
+        <v>0.007118017584998439</v>
       </c>
       <c r="T7">
-        <v>0.01940264769449919</v>
+        <v>0.007118017584998441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N8">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O8">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P8">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q8">
-        <v>3952.976063313438</v>
+        <v>7422.564839695981</v>
       </c>
       <c r="R8">
-        <v>3952.976063313438</v>
+        <v>66803.08355726385</v>
       </c>
       <c r="S8">
-        <v>0.3189450720246033</v>
+        <v>0.1894104471907638</v>
       </c>
       <c r="T8">
-        <v>0.3189450720246033</v>
+        <v>0.1894104471907639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q9">
-        <v>98.74815662299089</v>
+        <v>117.8571141117339</v>
       </c>
       <c r="R9">
-        <v>98.74815662299089</v>
+        <v>1060.714027005605</v>
       </c>
       <c r="S9">
-        <v>0.007967474991492083</v>
+        <v>0.003007500664612683</v>
       </c>
       <c r="T9">
-        <v>0.007967474991492083</v>
+        <v>0.003007500664612684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N10">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q10">
-        <v>210.7731047348614</v>
+        <v>266.3244532077975</v>
       </c>
       <c r="R10">
-        <v>210.7731047348614</v>
+        <v>2396.920078870177</v>
       </c>
       <c r="S10">
-        <v>0.01700618521179728</v>
+        <v>0.006796118979001161</v>
       </c>
       <c r="T10">
-        <v>0.01700618521179728</v>
+        <v>0.006796118979001163</v>
       </c>
     </row>
   </sheetData>
